--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail7 Features.xlsx
@@ -3003,7 +3003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,29 +3014,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3057,115 +3055,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3182,72 +3170,66 @@
         <v>3.031616227781586e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.605480313717734</v>
+        <v>1.85426677510296e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.677955372890953</v>
+        <v>4.05893604915219e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.85426677510296e-06</v>
+        <v>0.08814932790926028</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.05893604915219e-06</v>
+        <v>0.244886349452298</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08814932790926028</v>
+        <v>0.06759366020257243</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.244886349452298</v>
+        <v>1.63908246803031</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06759366020257243</v>
+        <v>1.515303662319983</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.554772704825019</v>
+        <v>3.957381881661638</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.515303662319983</v>
+        <v>1.050462119792047e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.957381881661638</v>
+        <v>24158682.21041027</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.050462119792047e-14</v>
+        <v>4.433691551327151e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>24158682.21041027</v>
+        <v>6.130937349363129</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.433691551327151e-06</v>
+        <v>0.0001590263956412814</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.130937349363129</v>
+        <v>8.70488763953807</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001590263956412814</v>
+        <v>1.479643617871857</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.70488763953807</v>
+        <v>0.01205023607343481</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.479643617871857</v>
+        <v>2.969995811672774</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01205023607343481</v>
+        <v>0.9416822020264182</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.969995811672774</v>
+        <v>1.80987564051949</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9416822020264182</v>
+        <v>33</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.80987564051949</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.155089928155127</v>
       </c>
     </row>
@@ -3262,72 +3244,66 @@
         <v>2.450628105660769e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.26835555673092</v>
+        <v>1.45952847818968e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.024850518969288</v>
+        <v>4.082092040104235e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.45952847818968e-06</v>
+        <v>0.08154824103613145</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.082092040104235e-06</v>
+        <v>0.2309487268181991</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08154824103613145</v>
+        <v>0.05986629418893776</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2309487268181991</v>
+        <v>1.658650519350823</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05986629418893776</v>
+        <v>1.606470763380726</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.580468730132829</v>
+        <v>4.205669261711921</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.606470763380726</v>
+        <v>9.300923785938286e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.205669261711921</v>
+        <v>27391356.69242837</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.300923785938286e-15</v>
+        <v>3.941424806453046e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>27391356.69242837</v>
+        <v>6.978356823547938</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.941424806453046e-06</v>
+        <v>0.0001391988493791259</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.978356823547938</v>
+        <v>9.752794922332937</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001391988493791259</v>
+        <v>1.162704566429333</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.752794922332937</v>
+        <v>0.01324017818093816</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.162704566429333</v>
+        <v>2.863630639480544</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01324017818093816</v>
+        <v>0.9438929599890649</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.863630639480544</v>
+        <v>1.844959408451001</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9438929599890649</v>
+        <v>33</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.844959408451001</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1787095503730946</v>
       </c>
     </row>
@@ -3342,72 +3318,66 @@
         <v>2.03129701654172e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.894211341285483</v>
+        <v>1.17027409178168e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.360293746185787</v>
+        <v>4.099472182373788e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.17027409178168e-06</v>
+        <v>0.07416490614932303</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.099472182373788e-06</v>
+        <v>0.2183830997255675</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07416490614932303</v>
+        <v>0.05309524945257003</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2183830997255675</v>
+        <v>1.672703975731244</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05309524945257003</v>
+        <v>1.548555957526437</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.598091813259404</v>
+        <v>4.202546684562708</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.548555957526437</v>
+        <v>9.314750469601502e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.202546684562708</v>
+        <v>27264845.14494114</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.314750469601502e-15</v>
+        <v>3.975889768536612e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>27264845.14494114</v>
+        <v>6.924322644086846</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.975889768536612e-06</v>
+        <v>0.0001323674769942532</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6.924322644086846</v>
+        <v>9.127049852150787</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001323674769942532</v>
+        <v>1.1894772302106</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.127049852150787</v>
+        <v>0.01102661309886645</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.1894772302106</v>
+        <v>2.890972049764585</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01102661309886645</v>
+        <v>0.9439741619646442</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.890972049764585</v>
+        <v>1.857702199630206</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9439741619646442</v>
+        <v>28</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.857702199630206</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1877491931270978</v>
       </c>
     </row>
@@ -3422,72 +3392,66 @@
         <v>1.729831181015291e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.511874323941533</v>
+        <v>9.536894172182257e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.848435287954842</v>
+        <v>4.112625514229151e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.536894172182257e-07</v>
+        <v>0.06613130412056363</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.112625514229151e-06</v>
+        <v>0.206457497165713</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06613130412056363</v>
+        <v>0.04692158938456987</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.206457497165713</v>
+        <v>1.655109567233919</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04692158938456987</v>
+        <v>1.516789639851223</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.579406556552236</v>
+        <v>4.187965091896119</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.516789639851223</v>
+        <v>9.379727301516144e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.187965091896119</v>
+        <v>27418841.59777451</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.379727301516144e-15</v>
+        <v>3.940991892220976e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>27418841.59777451</v>
+        <v>7.051612150631842</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.940991892220976e-06</v>
+        <v>0.0001284835378139678</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7.051612150631842</v>
+        <v>7.962295410747146</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001284835378139678</v>
+        <v>1.26344625054818</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.962295410747146</v>
+        <v>0.00814561837261875</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.26344625054818</v>
+        <v>3.029702825564832</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00814561837261875</v>
+        <v>0.9435487718917324</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.029702825564832</v>
+        <v>1.81373248603347</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9435487718917324</v>
+        <v>31</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.81373248603347</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1874880773463731</v>
       </c>
     </row>
@@ -3502,72 +3466,66 @@
         <v>1.516034227832081e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.168289173771226</v>
+        <v>7.897549893430459e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.717290161454727</v>
+        <v>4.122602270719278e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.897549893430459e-07</v>
+        <v>0.05703150896068326</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.122602270719278e-06</v>
+        <v>0.1956379845981313</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05703150896068326</v>
+        <v>0.04147182637972367</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1956379845981313</v>
+        <v>1.660388772748005</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04147182637972367</v>
+        <v>1.489075743143994</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.579244519469349</v>
+        <v>4.148917306547955</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.489075743143994</v>
+        <v>9.5571138719123e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.148917306547955</v>
+        <v>28268202.32215531</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.5571138719123e-15</v>
+        <v>3.893787061375926e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>28268202.32215531</v>
+        <v>7.63700619001408</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.893787061375926e-06</v>
+        <v>0.000132478427479254</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7.63700619001408</v>
+        <v>7.23952894442528</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000132478427479254</v>
+        <v>1.480074316736043</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.23952894442528</v>
+        <v>0.006943297629550649</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.480074316736043</v>
+        <v>3.102461701355901</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006943297629550649</v>
+        <v>0.944248201931061</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.102461701355901</v>
+        <v>1.838360718571816</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.944248201931061</v>
+        <v>31</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.838360718571816</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1805172605909864</v>
       </c>
     </row>
@@ -3582,72 +3540,66 @@
         <v>1.364950502413913e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.8871443059462797</v>
+        <v>6.7292783088442e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.023054784626996</v>
+        <v>4.130125275693736e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.7292783088442e-07</v>
+        <v>0.0477724796343975</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.130125275693736e-06</v>
+        <v>0.1914539830362033</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.0477724796343975</v>
+        <v>0.0389047336001055</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1914539830362033</v>
+        <v>1.664816864764316</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0389047336001055</v>
+        <v>1.466618519627302</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.581856587075368</v>
+        <v>4.26726822281245</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.466618519627302</v>
+        <v>9.034340085535273e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.26726822281245</v>
+        <v>30335239.43414802</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.034340085535273e-15</v>
+        <v>3.63522347472293e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>30335239.43414802</v>
+        <v>8.313641429103091</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.63522347472293e-06</v>
+        <v>0.0001434899612987944</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>8.313641429103091</v>
+        <v>8.200677045253338</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001434899612987944</v>
+        <v>1.512398309435306</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.200677045253338</v>
+        <v>0.009649858310339399</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.512398309435306</v>
+        <v>3.05413568880844</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009649858310339399</v>
+        <v>0.9434639863583617</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.05413568880844</v>
+        <v>1.84142239534772</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9434639863583617</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.84142239534772</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.177230743182332</v>
       </c>
     </row>
@@ -3662,72 +3614,66 @@
         <v>1.254782721033457e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.6498340480726217</v>
+        <v>5.936870045101991e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.6020025302127965</v>
+        <v>4.135830119951547e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.936870045101991e-07</v>
+        <v>0.03968470243405663</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.135830119951547e-06</v>
+        <v>0.1947652729418379</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03968470243405663</v>
+        <v>0.03949036267927464</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1947652729418379</v>
+        <v>1.665228252748007</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03949036267927464</v>
+        <v>1.44993983140181</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.580452692195232</v>
+        <v>4.632677197930377</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.44993983140181</v>
+        <v>7.665354394736822e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.632677197930377</v>
+        <v>35718826.66665873</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.665354394736822e-15</v>
+        <v>3.081802199930888e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>35718826.66665873</v>
+        <v>9.779724192823798</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.081802199930888e-06</v>
+        <v>0.0001546321530319789</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>9.779724192823798</v>
+        <v>11.82384941797766</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001546321530319789</v>
+        <v>1.121378726015939</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.82384941797766</v>
+        <v>0.02161810307179822</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.121378726015939</v>
+        <v>2.797655634247103</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02161810307179822</v>
+        <v>0.9431432247490302</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.797655634247103</v>
+        <v>1.807304097959247</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9431432247490302</v>
+        <v>38</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.807304097959247</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1928721186302192</v>
       </c>
     </row>
@@ -3742,72 +3688,66 @@
         <v>1.171169768664665e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.4341036690131502</v>
+        <v>5.391180397796082e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.3044443306839821</v>
+        <v>4.140220427732748e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.391180397796082e-07</v>
+        <v>0.03301732945996191</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.140220427732748e-06</v>
+        <v>0.2019186203113243</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03301732945996191</v>
+        <v>0.04185114868397086</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2019186203113243</v>
+        <v>1.704468346690766</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04185114868397086</v>
+        <v>1.546360104918855</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.623409496065588</v>
+        <v>4.094232698624926</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.546360104918855</v>
+        <v>6.42236371505679e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.094232698624926</v>
+        <v>41917436.93637875</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.42236371505679e-15</v>
+        <v>2.666243292634757e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>41917436.93637875</v>
+        <v>11.28455237041022</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.666243292634757e-06</v>
+        <v>0.0001479663034172079</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>11.28455237041022</v>
+        <v>11.37021646504195</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001479663034172079</v>
+        <v>1.177209362325162</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.37021646504195</v>
+        <v>0.01912935336872874</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.177209362325162</v>
+        <v>2.916662063666174</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01912935336872874</v>
+        <v>0.9456618706505852</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.916662063666174</v>
+        <v>1.817176731210445</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9456618706505852</v>
+        <v>38</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.817176731210445</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2038466205907936</v>
       </c>
     </row>
@@ -3822,72 +3762,66 @@
         <v>1.105459649586824e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.2272264620498516</v>
+        <v>5.004101428841729e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.04706096438381824</v>
+        <v>4.143666085456431e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.004101428841729e-07</v>
+        <v>0.02778328335975383</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.143666085456431e-06</v>
+        <v>0.2103841115313581</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02778328335975383</v>
+        <v>0.04502729516924606</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2103841115313581</v>
+        <v>1.788964564454076</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04502729516924606</v>
+        <v>1.493974860079244</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.717756202260358</v>
+        <v>4.652785698649556</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.493974860079244</v>
+        <v>4.940940815823524e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.652785698649556</v>
+        <v>50409786.78556994</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.940940815823524e-15</v>
+        <v>2.326918281996403e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>50409786.78556994</v>
+        <v>12.55565497354183</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.326918281996403e-06</v>
+        <v>0.0001327880232853253</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>12.55565497354183</v>
+        <v>8.05259602997601</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001327880232853253</v>
+        <v>1.516747113388814</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.05259602997601</v>
+        <v>0.008610546793046483</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.516747113388814</v>
+        <v>3.124052699553386</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.008610546793046483</v>
+        <v>0.9485473092635058</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.124052699553386</v>
+        <v>1.717991477523029</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9485473092635058</v>
+        <v>37</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.717991477523029</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2184874814232599</v>
       </c>
     </row>
@@ -3902,72 +3836,66 @@
         <v>1.052503588668768e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.02603615046131984</v>
+        <v>4.701869986034837e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.2015160072480615</v>
+        <v>4.146432362677913e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.701869986034837e-07</v>
+        <v>0.023685157807534</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.146432362677913e-06</v>
+        <v>0.2185664458038825</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.023685157807534</v>
+        <v>0.04832773366488672</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2185664458038825</v>
+        <v>1.810964828800108</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04832773366488672</v>
+        <v>1.621843452038024</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.753087355112012</v>
+        <v>4.538382107180599</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.621843452038024</v>
+        <v>2.14349395794317e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.538382107180599</v>
+        <v>110859555.6299798</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.14349395794317e-15</v>
+        <v>1.057284635751331e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>110859555.6299798</v>
+        <v>26.34320008722236</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.057284635751331e-06</v>
+        <v>0.0001356513760235825</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>26.34320008722236</v>
+        <v>7.120931655634713</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001356513760235825</v>
+        <v>1.704452786308527</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.120931655634713</v>
+        <v>0.006878564890885008</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.704452786308527</v>
+        <v>3.137450082039471</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006878564890885008</v>
+        <v>0.9515332746202023</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.137450082039471</v>
+        <v>1.668623571545317</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9515332746202023</v>
+        <v>37</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.668623571545317</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2221761751042948</v>
       </c>
     </row>
@@ -3982,72 +3910,66 @@
         <v>1.009529392322555e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1634559238927186</v>
+        <v>4.427736993015605e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.4336908201702165</v>
+        <v>4.148695151745807e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.427736993015605e-07</v>
+        <v>0.02033508842498383</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.148695151745807e-06</v>
+        <v>0.2256068167932367</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02033508842498383</v>
+        <v>0.05130701438450481</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2256068167932367</v>
+        <v>1.839660329191597</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.05130701438450481</v>
+        <v>1.866473216577777</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.794637707463341</v>
+        <v>3.95156753101044</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.866473216577777</v>
+        <v>1.525935989538297e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.95156753101044</v>
+        <v>153182252.6565293</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.525935989538297e-15</v>
+        <v>7.711107609358056e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>153182252.6565293</v>
+        <v>35.80578666630169</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.711107609358056e-07</v>
+        <v>0.0001460103493227443</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>35.80578666630169</v>
+        <v>8.291381308235575</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001460103493227443</v>
+        <v>1.56549912893942</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.291381308235575</v>
+        <v>0.01003777406872159</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.56549912893942</v>
+        <v>3.0740161859941</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01003777406872159</v>
+        <v>0.9519836481837655</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.0740161859941</v>
+        <v>1.641730846003528</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9519836481837655</v>
+        <v>37</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.641730846003528</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2172502700918565</v>
       </c>
     </row>
@@ -4062,72 +3984,66 @@
         <v>9.753665391451242e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3275742575429925</v>
+        <v>4.133625350225771e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.6181206410010889</v>
+        <v>4.150558555438455e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.133625350225771e-07</v>
+        <v>0.01729265902297955</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.150558555438455e-06</v>
+        <v>0.2307770583327568</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.01729265902297955</v>
+        <v>0.05354932034450952</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2307770583327568</v>
+        <v>1.838504832735344</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.05354932034450952</v>
+        <v>1.970573348879896</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.805724577402619</v>
+        <v>4.353911052857036</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.970573348879896</v>
+        <v>1.657510622908999e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.353911052857036</v>
+        <v>141001583.2380761</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.657510622908999e-15</v>
+        <v>8.361484186956774e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>141001583.2380761</v>
+        <v>32.95370873217676</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.361484186956774e-07</v>
+        <v>0.0001440748492621503</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>32.95370873217676</v>
+        <v>10.35292642636709</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001440748492621503</v>
+        <v>1.251355849911607</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.35292642636709</v>
+        <v>0.01544238689979827</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.251355849911607</v>
+        <v>2.972077338636964</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01544238689979827</v>
+        <v>0.9529092602470018</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.972077338636964</v>
+        <v>1.620115801161628</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9529092602470018</v>
+        <v>23</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.620115801161628</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2240428643276581</v>
       </c>
     </row>
@@ -4142,72 +4058,66 @@
         <v>9.498709731614288e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4485950261393644</v>
+        <v>3.777417128656434e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.7210895025651221</v>
+        <v>4.152071151188649e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.777417128656434e-07</v>
+        <v>0.01405587626025974</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.152071151188649e-06</v>
+        <v>0.2330570424312631</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.01405587626025974</v>
+        <v>0.05450036435879502</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2330570424312631</v>
+        <v>1.778953165793865</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.05450036435879502</v>
+        <v>1.971035592048865</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.735556084535262</v>
+        <v>4.220502885215805</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.971035592048865</v>
+        <v>1.783195516035197e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.220502885215805</v>
+        <v>133854323.2023251</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.783195516035197e-15</v>
+        <v>8.634988073384774e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>133854323.2023251</v>
+        <v>31.94947811149631</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.634988073384774e-07</v>
+        <v>0.0001296155058190743</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>31.94947811149631</v>
+        <v>10.40476508839793</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001296155058190743</v>
+        <v>1.114872375736664</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.40476508839793</v>
+        <v>0.01403206274278328</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.114872375736664</v>
+        <v>2.869053429331049</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01403206274278328</v>
+        <v>0.9512981155361572</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.869053429331049</v>
+        <v>1.620404223921552</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9512981155361572</v>
+        <v>17</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.620404223921552</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2408521669513936</v>
       </c>
     </row>
@@ -4222,72 +4132,66 @@
         <v>9.336336287254685e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5156642855212725</v>
+        <v>3.398411377699226e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7455246686654866</v>
+        <v>4.153177033090943e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.398411377699226e-07</v>
+        <v>0.00926631996485458</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.153177033090943e-06</v>
+        <v>0.2319231716000208</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.00926631996485458</v>
+        <v>0.05386559438365771</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2319231716000208</v>
+        <v>1.762723527941517</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.05386559438365771</v>
+        <v>1.673406286064036</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.706405795402248</v>
+        <v>4.189246244856342</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.673406286064036</v>
+        <v>3.077737008677137e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.189246244856342</v>
+        <v>79660028.10153176</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.077737008677137e-15</v>
+        <v>1.451469192399159e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>79660028.10153176</v>
+        <v>19.53045752810956</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.451469192399159e-06</v>
+        <v>0.0001417147175048632</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>19.53045752810956</v>
+        <v>8.021083275078233</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001417147175048632</v>
+        <v>1.639351678660569</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.021083275078233</v>
+        <v>0.009117609879087819</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.639351678660569</v>
+        <v>3.107571854186523</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.009117609879087819</v>
+        <v>0.9514981571992018</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.107571854186523</v>
+        <v>1.753302628835931</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9514981571992018</v>
+        <v>11</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.753302628835931</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2065358908879189</v>
       </c>
     </row>
@@ -4302,72 +4206,66 @@
         <v>9.257899731396891e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5425170388817648</v>
+        <v>3.210124573769497e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.7412864024681505</v>
+        <v>4.153782153059883e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.210124573769497e-07</v>
+        <v>0.003755961664414767</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.153782153059883e-06</v>
+        <v>0.2304923805869517</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.003755961664414767</v>
+        <v>0.05313555801255061</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2304923805869517</v>
+        <v>1.739151691997317</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.05313555801255061</v>
+        <v>1.640262432173852</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.675304499013983</v>
+        <v>3.828199730943709</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.640262432173852</v>
+        <v>3.685650145146479e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.828199730943709</v>
+        <v>67303056.16780402</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.685650145146479e-15</v>
+        <v>1.712820538376715e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>67303056.16780402</v>
+        <v>16.69489451006585</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.712820538376715e-06</v>
+        <v>0.000152749067537991</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>16.69489451006585</v>
+        <v>7.867039632281021</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000152749067537991</v>
+        <v>1.756734525188563</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.867039632281021</v>
+        <v>0.009453687535600511</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.756734525188563</v>
+        <v>3.098401159981754</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.009453687535600511</v>
+        <v>0.9515616482032684</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.098401159981754</v>
+        <v>1.732141808435171</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9515616482032684</v>
+        <v>11</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.732141808435171</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1906404801997275</v>
       </c>
     </row>
@@ -4382,72 +4280,66 @@
         <v>9.247789652360916e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.545679700289342</v>
+        <v>3.210124573769497e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7399774648980162</v>
+        <v>4.153862826504903e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.210124573769497e-07</v>
+        <v>-0.002090590043613488</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.153862826504903e-06</v>
+        <v>0.2278454285779503</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.002090590043613488</v>
+        <v>0.05191099262943658</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2278454285779503</v>
+        <v>1.730181087361866</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.05191099262943658</v>
+        <v>1.707690807733781</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.659379787110455</v>
+        <v>3.856156285931506</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.707690807733781</v>
+        <v>3.632403042064572e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.856156285931506</v>
+        <v>68737742.35233364</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.632403042064572e-15</v>
+        <v>1.67218718366442e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>68737742.35233364</v>
+        <v>17.16265840073424</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.67218718366442e-06</v>
+        <v>0.0001358535513508906</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>17.16265840073424</v>
+        <v>8.86595539053312</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001358535513508906</v>
+        <v>1.286533181935355</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.86595539053312</v>
+        <v>0.01067879081799621</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.286533181935355</v>
+        <v>3.058053137866072</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01067879081799621</v>
+        <v>0.9515724493339913</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.058053137866072</v>
+        <v>1.743424837051314</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9515724493339913</v>
+        <v>14</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.743424837051314</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1994915984072963</v>
       </c>
     </row>
@@ -4824,7 +4716,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.716959172672164</v>
+        <v>1.728111474250544</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.844331863222125</v>
@@ -4913,7 +4805,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.724613512137013</v>
+        <v>1.736808447526595</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.632733011694173</v>
@@ -5002,7 +4894,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.715609164724615</v>
+        <v>1.725925595436506</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.601091433568705</v>
@@ -5091,7 +4983,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.676681576932243</v>
+        <v>1.686053421266236</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.596968827132792</v>
@@ -5180,7 +5072,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.65227935010145</v>
+        <v>1.656148938039923</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.797182733112462</v>
@@ -5269,7 +5161,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.704903709138991</v>
+        <v>1.689454224417683</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.759424001970224</v>
@@ -5358,7 +5250,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.690350112687504</v>
+        <v>1.673016197680175</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.823925427110549</v>
@@ -5447,7 +5339,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.671632162293724</v>
+        <v>1.664231693348885</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.952056428256002</v>
@@ -5536,7 +5428,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.698694029902222</v>
+        <v>1.68850080686163</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.050252284843606</v>
@@ -5625,7 +5517,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.702794480176999</v>
+        <v>1.691352676374993</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.187467534107001</v>
@@ -5714,7 +5606,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.711638760760563</v>
+        <v>1.700107387767571</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.11884201779487</v>
@@ -5803,7 +5695,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.710613261229832</v>
+        <v>1.697750456442917</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.073702200686642</v>
@@ -5892,7 +5784,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.700572002778576</v>
+        <v>1.693323533842676</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.914064804910434</v>
@@ -5981,7 +5873,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.700289808738704</v>
+        <v>1.692338924397573</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.107778792291876</v>
@@ -6070,7 +5962,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.664648228362708</v>
+        <v>1.659576261978297</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.006798032919419</v>
@@ -6159,7 +6051,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.675908244735634</v>
+        <v>1.668468417252538</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.081487975870381</v>
@@ -6248,7 +6140,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.652798778043745</v>
+        <v>1.649597979718386</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.135052793236318</v>
@@ -6337,7 +6229,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.624527039553786</v>
+        <v>1.624364687640686</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.954985186600779</v>
@@ -6426,7 +6318,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.633096273444538</v>
+        <v>1.631849528929088</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.914829299116324</v>
@@ -6515,7 +6407,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.652458714370386</v>
+        <v>1.646608711452346</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.825042834941387</v>
@@ -6604,7 +6496,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.658736868884923</v>
+        <v>1.65236517077088</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.372501062837737</v>
@@ -6693,7 +6585,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.717343794485478</v>
+        <v>1.705525607998588</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.900614544679573</v>
@@ -6782,7 +6674,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.70451127525853</v>
+        <v>1.696911312256847</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.992689963772167</v>
@@ -6871,7 +6763,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.714506668513653</v>
+        <v>1.707617829347326</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.959568265995233</v>
@@ -6960,7 +6852,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.703543828571357</v>
+        <v>1.703686845174823</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.80352854029634</v>
@@ -7049,7 +6941,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.517777717969446</v>
+        <v>1.521993231013864</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.654945421164079</v>
@@ -7138,7 +7030,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.45265483668167</v>
+        <v>1.485763086968083</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.679119952512745</v>
@@ -7227,7 +7119,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.437228380589291</v>
+        <v>1.47330652868339</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.70160126479814</v>
@@ -7316,7 +7208,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.412757342381291</v>
+        <v>1.448100643729653</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.680289591673026</v>
@@ -7405,7 +7297,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.402979722731667</v>
+        <v>1.436715250208471</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.687327945442537</v>
@@ -7494,7 +7386,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.393217913597304</v>
+        <v>1.426722109813253</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.672416213903366</v>
@@ -7583,7 +7475,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.389169394079895</v>
+        <v>1.419542534460173</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.66394659479714</v>
@@ -7672,7 +7564,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.398784956567443</v>
+        <v>1.431485804637069</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.67073695194323</v>
@@ -7761,7 +7653,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.402666529540151</v>
+        <v>1.436375918216278</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.680555230856269</v>
@@ -7850,7 +7742,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.41192259403508</v>
+        <v>1.446525655719537</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.69313000018933</v>
@@ -7939,7 +7831,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.419217635629493</v>
+        <v>1.455554789037197</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.690501795454937</v>
@@ -8028,7 +7920,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.421408063790484</v>
+        <v>1.457731951706828</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.70196588129563</v>
@@ -8117,7 +8009,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.430249459460569</v>
+        <v>1.468237621970469</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.6960168565218</v>
@@ -8206,7 +8098,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.43187786861172</v>
+        <v>1.467221648293314</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.698644219598862</v>
@@ -8295,7 +8187,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.440185183741975</v>
+        <v>1.47123388056371</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.704073843593137</v>
@@ -8384,7 +8276,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.64100367309376</v>
+        <v>1.657768356031946</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.034913682752121</v>
@@ -8473,7 +8365,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.692925959732925</v>
+        <v>1.698706628861276</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.419939743455282</v>
@@ -8562,7 +8454,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.781722417550604</v>
+        <v>1.770817763359142</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.612648949897125</v>
@@ -8651,7 +8543,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.834134260351177</v>
+        <v>1.824663150185924</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.157213395199427</v>
@@ -8740,7 +8632,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.8875649176915</v>
+        <v>1.879993853712184</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.256630101250646</v>
@@ -8829,7 +8721,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.885878890312257</v>
+        <v>1.877079041239076</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.421204039830272</v>
@@ -8918,7 +8810,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.807264170197997</v>
+        <v>1.810674878247579</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.232961391601276</v>
@@ -9007,7 +8899,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.788915882151555</v>
+        <v>1.801484261286848</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.069107020794545</v>
@@ -9096,7 +8988,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.808027964045427</v>
+        <v>1.816457986000912</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.971910589703782</v>
@@ -9185,7 +9077,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.804965453858964</v>
+        <v>1.809938304915658</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.13771947667316</v>
@@ -9274,7 +9166,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.790171147175654</v>
+        <v>1.798505334877958</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.037107993193459</v>
@@ -9363,7 +9255,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.796886071719899</v>
+        <v>1.810001108405706</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.969407724118603</v>
@@ -9452,7 +9344,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.79805124404012</v>
+        <v>1.811757446489726</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.035423051183021</v>
@@ -9541,7 +9433,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.803000144694278</v>
+        <v>1.821784272713632</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.225269237110376</v>
@@ -9630,7 +9522,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.806405776269904</v>
+        <v>1.83019742308972</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.119086605081016</v>
@@ -9719,7 +9611,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.807828487139203</v>
+        <v>1.837301084581562</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.250233946949537</v>
@@ -9808,7 +9700,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.783453222649299</v>
+        <v>1.81562734591205</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.285573833618011</v>
@@ -9897,7 +9789,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.752304757640758</v>
+        <v>1.785396982112782</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.090416785886533</v>
@@ -9986,7 +9878,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.742694715851977</v>
+        <v>1.775084040219431</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.046720190330579</v>
@@ -10075,7 +9967,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.711530018032088</v>
+        <v>1.740560232163991</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.793949294914686</v>
@@ -10164,7 +10056,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.682228122055772</v>
+        <v>1.716300724130936</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.164627763339706</v>
@@ -10450,7 +10342,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.949464194747073</v>
+        <v>2.0454980489022</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.309736024152925</v>
@@ -10539,7 +10431,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.961050274974881</v>
+        <v>2.058605991783532</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.948852172494629</v>
@@ -10628,7 +10520,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.96077471018445</v>
+        <v>2.057529113288601</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.793245179826564</v>
@@ -10717,7 +10609,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.951668950269476</v>
+        <v>2.046971428384649</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.807134859971965</v>
@@ -10806,7 +10698,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.947436972912085</v>
+        <v>2.033844384295918</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.497374592741806</v>
@@ -10895,7 +10787,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.934136003868406</v>
+        <v>2.016795264813597</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.207951534335049</v>
@@ -10984,7 +10876,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.910793022513491</v>
+        <v>1.988757337586252</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.551198757060853</v>
@@ -11073,7 +10965,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.900380845476368</v>
+        <v>1.980016805879244</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.651660459945304</v>
@@ -11162,7 +11054,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.890076334118935</v>
+        <v>1.968216832914971</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.738445247789881</v>
@@ -11251,7 +11143,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.87711284087132</v>
+        <v>1.95413560554286</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.454269112107439</v>
@@ -11340,7 +11232,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.869432642961702</v>
+        <v>1.946623163321949</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.301980705681236</v>
@@ -11429,7 +11321,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.856760577921115</v>
+        <v>1.926248713878609</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.225064288098655</v>
@@ -11518,7 +11410,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.85130452909233</v>
+        <v>1.907694398210128</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.98957216546304</v>
@@ -11607,7 +11499,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.82366638812347</v>
+        <v>1.855020347528883</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.227735201909316</v>
@@ -11696,7 +11588,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.790218471689659</v>
+        <v>1.81384889111333</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.925224153901536</v>
@@ -11785,7 +11677,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.761991894294944</v>
+        <v>1.771177879747001</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.956037317259948</v>
@@ -11874,7 +11766,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.718445581682209</v>
+        <v>1.716362378572194</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.861937872960206</v>
@@ -11963,7 +11855,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.68463128600826</v>
+        <v>1.674724741881901</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.570162434915051</v>
@@ -12052,7 +11944,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.659234329912791</v>
+        <v>1.63975118402609</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.747669563164366</v>
@@ -12141,7 +12033,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.634849097439326</v>
+        <v>1.613487098811274</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.630397345559797</v>
@@ -12230,7 +12122,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.668257357200259</v>
+        <v>1.641690250764498</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.674641644348304</v>
@@ -12319,7 +12211,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.699899180102761</v>
+        <v>1.667107831000852</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.084428424124709</v>
@@ -12408,7 +12300,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.698091359877933</v>
+        <v>1.667758658350976</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.476843389492505</v>
@@ -12497,7 +12389,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.683110431924277</v>
+        <v>1.658519330932274</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.193466487715314</v>
@@ -12586,7 +12478,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.689642527573365</v>
+        <v>1.666826733393894</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.339297647162648</v>
@@ -12675,7 +12567,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.658408489389294</v>
+        <v>1.643124163608433</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.542582602614268</v>
@@ -12764,7 +12656,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.643899966167007</v>
+        <v>1.641031873239509</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.524716852687701</v>
@@ -12853,7 +12745,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.634540090479226</v>
+        <v>1.629411597849237</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.566081839875279</v>
@@ -12942,7 +12834,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.614340767238048</v>
+        <v>1.610351117133525</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.649114259980803</v>
@@ -13031,7 +12923,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.619009777276518</v>
+        <v>1.617105088173479</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.618393950461234</v>
@@ -13120,7 +13012,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.625153814141584</v>
+        <v>1.627362645748532</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.704710714145464</v>
@@ -13209,7 +13101,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.658734237403534</v>
+        <v>1.658317456541971</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.706391068760114</v>
@@ -13298,7 +13190,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.694566148410226</v>
+        <v>1.70535993785116</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.847092417346168</v>
@@ -13387,7 +13279,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.743150419114664</v>
+        <v>1.766079197321359</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.198594281583727</v>
@@ -13476,7 +13368,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.805608772635896</v>
+        <v>1.845440540555736</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.328173243593314</v>
@@ -13565,7 +13457,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.833629776528579</v>
+        <v>1.889743224799339</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.308356866825028</v>
@@ -13654,7 +13546,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.850537999093024</v>
+        <v>1.912876334627157</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.645377840429955</v>
@@ -13743,7 +13635,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.866776261212455</v>
+        <v>1.939218543695742</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.813945229184388</v>
@@ -13832,7 +13724,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.893597883283158</v>
+        <v>1.969043203680545</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.147451723805451</v>
@@ -13921,7 +13813,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.905940762482697</v>
+        <v>1.984737662058742</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.478719082678271</v>
@@ -14010,7 +13902,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.9353880014883</v>
+        <v>2.01471864725195</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.966159565744261</v>
@@ -14099,7 +13991,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.943880874593768</v>
+        <v>2.024168897841593</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.636507877742664</v>
@@ -14188,7 +14080,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.958709202497127</v>
+        <v>2.040610030377922</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.997470500809993</v>
@@ -14277,7 +14169,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.973492069662058</v>
+        <v>2.06109273400579</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.538594052995291</v>
@@ -14366,7 +14258,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.976903322696112</v>
+        <v>2.069644966306708</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.898562020200586</v>
@@ -14455,7 +14347,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.981377889204667</v>
+        <v>2.075354308784267</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.304679325190885</v>
@@ -14544,7 +14436,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.983268302877932</v>
+        <v>2.077604508447213</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5.338372950368718</v>
@@ -14633,7 +14525,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.984464931998648</v>
+        <v>2.081117356397283</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>5.358716156505254</v>
@@ -14722,7 +14614,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.978895610598221</v>
+        <v>2.070173075107693</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.586713752671592</v>
@@ -14811,7 +14703,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.973819335090727</v>
+        <v>2.056104647983683</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.289102139381242</v>
@@ -14900,7 +14792,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.968285065923082</v>
+        <v>2.048010620166496</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.837037371475317</v>
@@ -14989,7 +14881,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.963961468589301</v>
+        <v>2.041489850353146</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.077375596491015</v>
@@ -15078,7 +14970,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.957444234296504</v>
+        <v>2.020946799891758</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.769653797574977</v>
@@ -15167,7 +15059,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.939232018981479</v>
+        <v>2.001217459351681</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.796864330797158</v>
@@ -15256,7 +15148,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.929082064323102</v>
+        <v>1.985743617810808</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.055903787862952</v>
@@ -15345,7 +15237,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.920141635024436</v>
+        <v>1.966653027343628</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.227095580559308</v>
@@ -15434,7 +15326,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.899530886681493</v>
+        <v>1.938970597857926</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.844493862252736</v>
@@ -15523,7 +15415,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.876917685361986</v>
+        <v>1.906360112036057</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.439296785248996</v>
@@ -15612,7 +15504,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.861858503712127</v>
+        <v>1.870531818937117</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.157787466783162</v>
@@ -15701,7 +15593,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.833481527223175</v>
+        <v>1.814493611534021</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.859715504085611</v>
@@ -15790,7 +15682,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.797299960187707</v>
+        <v>1.766521320848689</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.917282658315755</v>
@@ -16076,7 +15968,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.908620543347489</v>
+        <v>1.956255279033786</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.078895999169917</v>
@@ -16165,7 +16057,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.912309781069164</v>
+        <v>1.958023930019298</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.388775629492112</v>
@@ -16254,7 +16146,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.913031542272713</v>
+        <v>1.95892274971078</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.444144110926933</v>
@@ -16343,7 +16235,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.903172173586948</v>
+        <v>1.950149514441605</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.52266339732599</v>
@@ -16432,7 +16324,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.89666630905965</v>
+        <v>1.939133731315968</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.039243170233083</v>
@@ -16521,7 +16413,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.901913212111198</v>
+        <v>1.939345638311279</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.996497679845893</v>
@@ -16610,7 +16502,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.890847691918122</v>
+        <v>1.921417907692118</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.821240648869719</v>
@@ -16699,7 +16591,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.879286623143232</v>
+        <v>1.908346528397675</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.954684652362259</v>
@@ -16788,7 +16680,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.878864406735127</v>
+        <v>1.90465517213373</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.60856863532565</v>
@@ -16877,7 +16769,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.878628617503992</v>
+        <v>1.900434686739941</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.822526468245438</v>
@@ -16966,7 +16858,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.879580708815383</v>
+        <v>1.899027015868846</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.00007771896523</v>
@@ -17055,7 +16947,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.86780981582588</v>
+        <v>1.88036155284433</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.011903176356448</v>
@@ -17144,7 +17036,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.854547647397998</v>
+        <v>1.858012028345196</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.120585560896741</v>
@@ -17233,7 +17125,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.844232187366898</v>
+        <v>1.834531618416426</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.766716077218736</v>
@@ -17322,7 +17214,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.823981531746244</v>
+        <v>1.810501132654178</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.478472735199931</v>
@@ -17411,7 +17303,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.816040792142714</v>
+        <v>1.798714756508077</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.113047408047072</v>
@@ -17500,7 +17392,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.792894592137566</v>
+        <v>1.764021257695085</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.290100267680847</v>
@@ -17589,7 +17481,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.77239085889607</v>
+        <v>1.745096892760446</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.829600929152176</v>
@@ -17678,7 +17570,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.75921116234219</v>
+        <v>1.726466063147947</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.075737731366411</v>
@@ -17767,7 +17659,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.755769936423936</v>
+        <v>1.719857645755708</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.058342102167479</v>
@@ -17856,7 +17748,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.764049559186343</v>
+        <v>1.727234873821934</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.279588864424522</v>
@@ -17945,7 +17837,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.779490484804276</v>
+        <v>1.743421762029423</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.219485674267673</v>
@@ -18034,7 +17926,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.775151048912747</v>
+        <v>1.741254190445239</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.686770867353748</v>
@@ -18123,7 +18015,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.777361003266967</v>
+        <v>1.743859115016795</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.461089410790283</v>
@@ -18212,7 +18104,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.771236949312766</v>
+        <v>1.737098593737226</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.96048709880175</v>
@@ -18301,7 +18193,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.766792396866839</v>
+        <v>1.747013057730831</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.239163661539993</v>
@@ -18390,7 +18282,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.764041750769853</v>
+        <v>1.752041836609666</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.340680547281151</v>
@@ -18479,7 +18371,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.756178359776103</v>
+        <v>1.750896639829683</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.339343892716705</v>
@@ -18568,7 +18460,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.746450704914786</v>
+        <v>1.741983457294878</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.296998816342984</v>
@@ -18657,7 +18549,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.741364795034875</v>
+        <v>1.737219257734053</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.236684666632167</v>
@@ -18746,7 +18638,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.744996370744117</v>
+        <v>1.743330891678408</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.247371062290042</v>
@@ -18835,7 +18727,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.759446251061345</v>
+        <v>1.753228537355917</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.318779058011147</v>
@@ -18924,7 +18816,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.782022886175212</v>
+        <v>1.786292185029489</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.337150909445304</v>
@@ -19013,7 +18905,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.793602663423374</v>
+        <v>1.802934561105484</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.443406618893333</v>
@@ -19102,7 +18994,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.81649508985074</v>
+        <v>1.828950693513128</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.452292961479899</v>
@@ -19191,7 +19083,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.824729493652932</v>
+        <v>1.847061871563647</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.555476266177546</v>
@@ -19280,7 +19172,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.834153904391431</v>
+        <v>1.858293585430972</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.602327074176494</v>
@@ -19369,7 +19261,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.84826753998208</v>
+        <v>1.874024360789587</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.578333898343786</v>
@@ -19458,7 +19350,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.853387362332173</v>
+        <v>1.882364642691563</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.630347943460758</v>
@@ -19547,7 +19439,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.867704818940625</v>
+        <v>1.899217531618565</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.814078587332044</v>
@@ -19636,7 +19528,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.898454913373548</v>
+        <v>1.923763488688428</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.141903090662074</v>
@@ -19725,7 +19617,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.905329611029302</v>
+        <v>1.929728726197059</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.542541141164832</v>
@@ -19814,7 +19706,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.926058826875754</v>
+        <v>1.946674044391604</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.694807447303175</v>
@@ -19903,7 +19795,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.935720243038398</v>
+        <v>1.958742285327056</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.994681631557196</v>
@@ -19992,7 +19884,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.948691658293169</v>
+        <v>1.974823071595281</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>5.407996042269319</v>
@@ -20081,7 +19973,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.950041982490465</v>
+        <v>1.97334817661048</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.009159985367401</v>
@@ -20170,7 +20062,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.932883810210816</v>
+        <v>1.962672489871143</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.810518833777857</v>
@@ -20259,7 +20151,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.927377541958401</v>
+        <v>1.95293896964351</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.812169578833041</v>
@@ -20348,7 +20240,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.922570318324299</v>
+        <v>1.940669853099046</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.479788267054314</v>
@@ -20437,7 +20329,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.915395746824355</v>
+        <v>1.92760709197253</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.752135461712516</v>
@@ -20526,7 +20418,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.862836813181616</v>
+        <v>1.878233531698976</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.149652428411232</v>
@@ -20615,7 +20507,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.855975774352622</v>
+        <v>1.874321898771436</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.822314218300533</v>
@@ -20704,7 +20596,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.851047145359385</v>
+        <v>1.867988171522027</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.910759222239852</v>
@@ -20793,7 +20685,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.841444068659168</v>
+        <v>1.858210677258445</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.903943074686676</v>
@@ -20882,7 +20774,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.835563675805764</v>
+        <v>1.850649640672392</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.953822868432833</v>
@@ -20971,7 +20863,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.832206650906882</v>
+        <v>1.840661567802451</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.683128629416028</v>
@@ -21060,7 +20952,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.821770896254672</v>
+        <v>1.83231668515752</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.798220469679033</v>
@@ -21149,7 +21041,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.80240424002363</v>
+        <v>1.811966691070109</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.672679213183438</v>
@@ -21238,7 +21130,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.799234719831852</v>
+        <v>1.804735088452332</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.575687772836179</v>
@@ -21327,7 +21219,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.781878520614272</v>
+        <v>1.781343735250152</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.562798539451971</v>
@@ -21416,7 +21308,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.764350310244369</v>
+        <v>1.770084521064106</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.529588168721584</v>
@@ -21702,7 +21594,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.834558358537203</v>
+        <v>1.802074705675002</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.572776343884391</v>
@@ -21791,7 +21683,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.844069269926089</v>
+        <v>1.813828666132821</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.875253698117611</v>
@@ -21880,7 +21772,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.845633944780671</v>
+        <v>1.82431375229514</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.193257316427311</v>
@@ -21969,7 +21861,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.848357208005057</v>
+        <v>1.826520678260773</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.653807422711397</v>
@@ -22058,7 +21950,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.845584174675902</v>
+        <v>1.81915140367661</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.325958057664028</v>
@@ -22147,7 +22039,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.858305970643918</v>
+        <v>1.832058901597112</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.105522726104483</v>
@@ -22236,7 +22128,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.839810292181728</v>
+        <v>1.81900582595756</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.986846163566824</v>
@@ -22325,7 +22217,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.848381199353696</v>
+        <v>1.830921837528527</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.202657630477851</v>
@@ -22414,7 +22306,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.852873320604605</v>
+        <v>1.834790943927841</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.582835608631155</v>
@@ -22503,7 +22395,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.849004439603389</v>
+        <v>1.826095632055103</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.501780027596515</v>
@@ -22592,7 +22484,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.852315659424743</v>
+        <v>1.826699538757296</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.380288131803185</v>
@@ -22681,7 +22573,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.846681399378836</v>
+        <v>1.820621576419469</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.257421387453536</v>
@@ -22770,7 +22662,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.844055500144746</v>
+        <v>1.814672896588467</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.823649277416417</v>
@@ -22859,7 +22751,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.839123147355014</v>
+        <v>1.815153053919747</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.935611869160236</v>
@@ -22948,7 +22840,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.835352624335692</v>
+        <v>1.814767914392015</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.128033374213603</v>
@@ -23037,7 +22929,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.839469371749609</v>
+        <v>1.820323497587539</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.820367207842203</v>
@@ -23126,7 +23018,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.834218895188217</v>
+        <v>1.809772494320113</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.547554411778561</v>
@@ -23215,7 +23107,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.82273706134744</v>
+        <v>1.799000600532259</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.854007694477565</v>
@@ -23304,7 +23196,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.819947730755519</v>
+        <v>1.793844663764883</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.96899761538216</v>
@@ -23393,7 +23285,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.827134136452735</v>
+        <v>1.797243962193868</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.756997313207601</v>
@@ -23482,7 +23374,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.83691804321291</v>
+        <v>1.79983664712691</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.010872061678972</v>
@@ -23571,7 +23463,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.843254181250711</v>
+        <v>1.804390155467391</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.673480571781567</v>
@@ -23660,7 +23552,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.833319588967114</v>
+        <v>1.798560083309268</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.034065560895159</v>
@@ -23749,7 +23641,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.825024646620979</v>
+        <v>1.790522506972095</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.898335739842865</v>
@@ -23838,7 +23730,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.823897127705826</v>
+        <v>1.791761818893573</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.434597462587753</v>
@@ -23927,7 +23819,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.801699300628996</v>
+        <v>1.783152408802852</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.439730341407711</v>
@@ -24016,7 +23908,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.795322613668655</v>
+        <v>1.790045466034598</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.555738830958922</v>
@@ -24105,7 +23997,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.77754121832242</v>
+        <v>1.778276729414113</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.478568871034862</v>
@@ -24194,7 +24086,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.760534060838966</v>
+        <v>1.761527855166819</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.514020765788191</v>
@@ -24283,7 +24175,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.752400654191828</v>
+        <v>1.75307337756057</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.400002734175258</v>
@@ -24372,7 +24264,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.750072314437959</v>
+        <v>1.746276489785167</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.408930752594817</v>
@@ -24461,7 +24353,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.748228592201763</v>
+        <v>1.743380622381311</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.403179744846402</v>
@@ -24550,7 +24442,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.754326950463587</v>
+        <v>1.746110629193178</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.435736284794857</v>
@@ -24639,7 +24531,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.753874187749159</v>
+        <v>1.749383075834055</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.455981628934609</v>
@@ -24728,7 +24620,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.752792124382454</v>
+        <v>1.752933437339376</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.382216074463753</v>
@@ -24817,7 +24709,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.752405103514217</v>
+        <v>1.754339450299365</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.493899057248037</v>
@@ -24906,7 +24798,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.757982627759853</v>
+        <v>1.759866162886671</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.530627941279159</v>
@@ -24995,7 +24887,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.767426536920394</v>
+        <v>1.76641215634212</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.542712979654866</v>
@@ -25084,7 +24976,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.771514387128715</v>
+        <v>1.764813845413777</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.485815496925448</v>
@@ -25173,7 +25065,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.775189037656174</v>
+        <v>1.76665887284577</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.467560217323033</v>
@@ -25262,7 +25154,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.816069984658301</v>
+        <v>1.786518509144944</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.020410567326086</v>
@@ -25351,7 +25243,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.811520991752671</v>
+        <v>1.775481425906227</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.486094169242553</v>
@@ -25440,7 +25332,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.852478687005534</v>
+        <v>1.805549016528468</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.787878838288587</v>
@@ -25529,7 +25421,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.873200889174074</v>
+        <v>1.82628049937452</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.27485403353724</v>
@@ -25618,7 +25510,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.891915034931328</v>
+        <v>1.847083703183301</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.307783994440082</v>
@@ -25707,7 +25599,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.890333290852068</v>
+        <v>1.850514778729602</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.169607966416793</v>
@@ -25796,7 +25688,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.881917119092313</v>
+        <v>1.844010080880829</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.434398891614113</v>
@@ -25885,7 +25777,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.880800193702326</v>
+        <v>1.844811289234657</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.815675452507793</v>
@@ -25974,7 +25866,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.886911264484922</v>
+        <v>1.850211615552553</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.464851436753349</v>
@@ -26063,7 +25955,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.893894592053902</v>
+        <v>1.856441327501979</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.49338440874422</v>
@@ -26152,7 +26044,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.893069067698127</v>
+        <v>1.855512704569036</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.3719418121207</v>
@@ -26241,7 +26133,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.896180119522225</v>
+        <v>1.862419378622859</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.426786740112121</v>
@@ -26330,7 +26222,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.895873548120174</v>
+        <v>1.862907032288274</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.374215190346333</v>
@@ -26419,7 +26311,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.900125807895625</v>
+        <v>1.873485092152406</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.670634609069444</v>
@@ -26508,7 +26400,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.902855931563547</v>
+        <v>1.877994423143392</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.581331354048493</v>
@@ -26597,7 +26489,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.903229446902415</v>
+        <v>1.877165590499666</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.732359351839885</v>
@@ -26686,7 +26578,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.900830006705099</v>
+        <v>1.870491249725452</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.512319939425712</v>
@@ -26775,7 +26667,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.895014348331143</v>
+        <v>1.862841749259441</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.755339226727989</v>
@@ -26864,7 +26756,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.891388518185114</v>
+        <v>1.860427619758846</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.610934007962979</v>
@@ -26953,7 +26845,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.885551178119208</v>
+        <v>1.85890091726748</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.40850620081139</v>
@@ -27042,7 +26934,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.875023946290631</v>
+        <v>1.846943900010282</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.799388308710316</v>
@@ -27328,7 +27220,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.685103940558768</v>
+        <v>1.66383699845132</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.135865840985204</v>
@@ -27417,7 +27309,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.689199152451476</v>
+        <v>1.66994544683722</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.238242798513243</v>
@@ -27506,7 +27398,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.649806829107699</v>
+        <v>1.634412220379894</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.563906406390617</v>
@@ -27595,7 +27487,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.617201254407092</v>
+        <v>1.610595669730909</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.597551595061542</v>
@@ -27684,7 +27576,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.613457508444923</v>
+        <v>1.605681607181887</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.664879755542387</v>
@@ -27773,7 +27665,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.62819531907134</v>
+        <v>1.621910210388943</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.599893509262867</v>
@@ -27862,7 +27754,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.615608680159043</v>
+        <v>1.608400301493259</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.615816860650788</v>
@@ -27951,7 +27843,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.604446170744219</v>
+        <v>1.60175432327005</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.606679870834118</v>
@@ -28040,7 +27932,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.611115635790936</v>
+        <v>1.608478551153121</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.641814537304996</v>
@@ -28129,7 +28021,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.601082742582289</v>
+        <v>1.596149104545642</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.566218859580205</v>
@@ -28218,7 +28110,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.596045744497588</v>
+        <v>1.596666346340417</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.665097821895225</v>
@@ -28307,7 +28199,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.590130375010308</v>
+        <v>1.590679494441476</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.573836675652448</v>
@@ -28396,7 +28288,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.5937200307229</v>
+        <v>1.588594717866585</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.578180881521305</v>
@@ -28485,7 +28377,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.598168040419073</v>
+        <v>1.588691974207889</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.580308898165098</v>
@@ -28574,7 +28466,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.587563751416433</v>
+        <v>1.580462074660852</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.448909884075527</v>
@@ -28663,7 +28555,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.583666686969101</v>
+        <v>1.578505940817858</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.523867413903933</v>
@@ -28752,7 +28644,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.581675969534493</v>
+        <v>1.571044615402694</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.435399185442282</v>
@@ -28841,7 +28733,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.617088323388055</v>
+        <v>1.603750044527771</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.696741020423684</v>
@@ -28930,7 +28822,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.650229423131311</v>
+        <v>1.632369276237718</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.984044942368449</v>
@@ -29019,7 +28911,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.652187241643319</v>
+        <v>1.635109189941406</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.813395023307681</v>
@@ -29108,7 +29000,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.662691528616144</v>
+        <v>1.637228762752133</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.752188688562208</v>
@@ -29197,7 +29089,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.680138658694338</v>
+        <v>1.653345546020108</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.152812065524186</v>
@@ -29286,7 +29178,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.676727013297844</v>
+        <v>1.654081393912446</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.118863492157806</v>
@@ -29375,7 +29267,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.665079473376762</v>
+        <v>1.641617600920121</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.821946437346212</v>
@@ -29464,7 +29356,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.662838377274909</v>
+        <v>1.635078440163313</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.053443808050394</v>
@@ -29553,7 +29445,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.634784927606627</v>
+        <v>1.605336522638578</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.661905516251367</v>
@@ -29642,7 +29534,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.627533257029519</v>
+        <v>1.608109344508954</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.748015152067389</v>
@@ -29731,7 +29623,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.624866482364086</v>
+        <v>1.60622728735952</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.697713825788234</v>
@@ -29820,7 +29712,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.59495245560896</v>
+        <v>1.586268044473121</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.72452391621908</v>
@@ -29909,7 +29801,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.603402625732851</v>
+        <v>1.595815851656941</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.78062300138642</v>
@@ -29998,7 +29890,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.600425214205103</v>
+        <v>1.593012542389762</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.71037516326786</v>
@@ -30087,7 +29979,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.615186614527715</v>
+        <v>1.600951257889107</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.780254033009701</v>
@@ -30176,7 +30068,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.607031976603692</v>
+        <v>1.593885981395409</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.756690020705658</v>
@@ -30265,7 +30157,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.603998803869618</v>
+        <v>1.588236220600854</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.619392496408973</v>
@@ -30354,7 +30246,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.607254162372275</v>
+        <v>1.593807943052335</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.77261599556732</v>
@@ -30443,7 +30335,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.606740893123733</v>
+        <v>1.593330176202143</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.817185466473164</v>
@@ -30532,7 +30424,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.598717920513145</v>
+        <v>1.589147682913451</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.803440491244721</v>
@@ -30621,7 +30513,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.612546102084047</v>
+        <v>1.599781156667736</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.812127432346828</v>
@@ -30710,7 +30602,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.626007189989362</v>
+        <v>1.611682242893831</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.654170829031396</v>
@@ -30799,7 +30691,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.624996184246603</v>
+        <v>1.614813240874496</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.808350535866128</v>
@@ -30888,7 +30780,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.663688266721589</v>
+        <v>1.648579547521318</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.688608100016067</v>
@@ -30977,7 +30869,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.657555222102676</v>
+        <v>1.636559716767303</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.121488626867208</v>
@@ -31066,7 +30958,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.6774674987576</v>
+        <v>1.656107323829895</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.675185560806887</v>
@@ -31155,7 +31047,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.702354922809132</v>
+        <v>1.67802736067798</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.885224516615795</v>
@@ -31244,7 +31136,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.701572338764196</v>
+        <v>1.67877253258509</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.996567663614714</v>
@@ -31333,7 +31225,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.707704193560678</v>
+        <v>1.677084024290016</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.068176744086302</v>
@@ -31422,7 +31314,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.697256042536883</v>
+        <v>1.676110124762374</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.270850491289696</v>
@@ -31511,7 +31403,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.709022923954514</v>
+        <v>1.690655179405869</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.269411694373675</v>
@@ -31600,7 +31492,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.719544834154507</v>
+        <v>1.707352945641792</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.988055784043492</v>
@@ -31689,7 +31581,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.714668937007488</v>
+        <v>1.697213577703448</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.169922141706816</v>
@@ -31778,7 +31670,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.719814130168962</v>
+        <v>1.699241428424182</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.058860830697753</v>
@@ -31867,7 +31759,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.73326238947756</v>
+        <v>1.706536449490992</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.973981238880222</v>
@@ -31956,7 +31848,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.726007761415116</v>
+        <v>1.701126326645718</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.074884485433049</v>
@@ -32045,7 +31937,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.725239795900558</v>
+        <v>1.702431296775798</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.005372407170516</v>
@@ -32134,7 +32026,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.736147753137723</v>
+        <v>1.708598963268282</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.012461444677012</v>
@@ -32223,7 +32115,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.751285818347123</v>
+        <v>1.723322278200596</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.828421877769497</v>
@@ -32312,7 +32204,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.758925721617042</v>
+        <v>1.734360961913355</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.029271955976434</v>
@@ -32401,7 +32293,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.748324442049167</v>
+        <v>1.722564834365989</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.159905724112046</v>
@@ -32490,7 +32382,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.747117876525666</v>
+        <v>1.718523533528116</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.12726043044192</v>
@@ -32579,7 +32471,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.737137014047251</v>
+        <v>1.706825583098004</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.919507889996486</v>
@@ -32668,7 +32560,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.726310950162599</v>
+        <v>1.700356707352411</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.166306184518347</v>
@@ -32954,7 +32846,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.72354248384303</v>
+        <v>1.741151069768696</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.239569945784137</v>
@@ -33043,7 +32935,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.744716343472898</v>
+        <v>1.761589930833423</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.144588148867667</v>
@@ -33132,7 +33024,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.748668230264663</v>
+        <v>1.765121081507203</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.131973464835094</v>
@@ -33221,7 +33113,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.735079008596869</v>
+        <v>1.752221767445341</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.1494068701285</v>
@@ -33310,7 +33202,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.73373702800028</v>
+        <v>1.747728017746941</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.995315797563006</v>
@@ -33399,7 +33291,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.792692095463815</v>
+        <v>1.793922224824649</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.099569727866693</v>
@@ -33488,7 +33380,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.771418565916884</v>
+        <v>1.772983307882806</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.296919742684975</v>
@@ -33577,7 +33469,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.76318093784507</v>
+        <v>1.771610946040113</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.578229111908169</v>
@@ -33666,7 +33558,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.797274666799766</v>
+        <v>1.798013245022622</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.529037652023507</v>
@@ -33755,7 +33647,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.79647285266541</v>
+        <v>1.793913519994833</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.530713577775575</v>
@@ -33844,7 +33736,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.802931673178492</v>
+        <v>1.7982443026131</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.090015873489667</v>
@@ -33933,7 +33825,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.799821168417184</v>
+        <v>1.79576764117787</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.250416039198043</v>
@@ -34022,7 +33914,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.796349057356491</v>
+        <v>1.786967363098841</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.303798428712891</v>
@@ -34111,7 +34003,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.800199944882895</v>
+        <v>1.792281486457497</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.328463660727917</v>
@@ -34200,7 +34092,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.78389517601699</v>
+        <v>1.784673904686001</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.417493258729168</v>
@@ -34289,7 +34181,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.795843012287304</v>
+        <v>1.791263303443309</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.262473034154336</v>
@@ -34378,7 +34270,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.776535712020469</v>
+        <v>1.773810904856392</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.253524370565229</v>
@@ -34467,7 +34359,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.752255190966329</v>
+        <v>1.7520721232253</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.45702031889076</v>
@@ -34556,7 +34448,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.757920959457798</v>
+        <v>1.757812530696229</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.454119613627832</v>
@@ -34645,7 +34537,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.773555621164654</v>
+        <v>1.768491305882454</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.066219443970115</v>
@@ -34734,7 +34626,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.790604589301544</v>
+        <v>1.781806824353034</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.849743939490724</v>
@@ -34823,7 +34715,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.82352745444473</v>
+        <v>1.809932811022847</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.268582875370042</v>
@@ -34912,7 +34804,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.799752255209358</v>
+        <v>1.794521496065697</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.118677881064317</v>
@@ -35001,7 +34893,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.800908287875814</v>
+        <v>1.790447282026947</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.293509068762105</v>
@@ -35090,7 +34982,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.804600034822532</v>
+        <v>1.796762422123148</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.972689996311153</v>
@@ -35179,7 +35071,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.828486145698556</v>
+        <v>1.814038013880915</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.246700373639725</v>
@@ -35268,7 +35160,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.835300995645444</v>
+        <v>1.824333808224151</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.390797119310607</v>
@@ -35357,7 +35249,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.781672826456324</v>
+        <v>1.781735622873776</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.481683415362007</v>
@@ -35446,7 +35338,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.709576181126178</v>
+        <v>1.71772057350242</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.486683145750213</v>
@@ -35535,7 +35427,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.68505844739533</v>
+        <v>1.696572585843439</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.473182983538893</v>
@@ -35624,7 +35516,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.683744771455962</v>
+        <v>1.69780286130139</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.509760582312977</v>
@@ -35713,7 +35605,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.694494072492896</v>
+        <v>1.703869991607566</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.573020271300332</v>
@@ -35802,7 +35694,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.712557880710857</v>
+        <v>1.722713634317895</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.630773984815062</v>
@@ -35891,7 +35783,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.706072799591378</v>
+        <v>1.718267047460508</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.517714960846265</v>
@@ -35980,7 +35872,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.707833711288663</v>
+        <v>1.720864283287165</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.512285522792046</v>
@@ -36069,7 +35961,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.71170515705053</v>
+        <v>1.725659240969392</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.538991403235392</v>
@@ -36158,7 +36050,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.717019838201992</v>
+        <v>1.730403426539578</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.588583913551423</v>
@@ -36247,7 +36139,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.738894199576596</v>
+        <v>1.75072985030639</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.612845879353437</v>
@@ -36336,7 +36228,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.73544909840131</v>
+        <v>1.749766119780648</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.59530692742551</v>
@@ -36425,7 +36317,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.736930255851342</v>
+        <v>1.751910761683539</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.483137751205991</v>
@@ -36514,7 +36406,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.726854669531574</v>
+        <v>1.737648651958313</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.58998612485042</v>
@@ -36603,7 +36495,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.72286115987662</v>
+        <v>1.728878906857279</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.476630606501317</v>
@@ -36692,7 +36584,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.808828703786121</v>
+        <v>1.798967800847871</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.709427580190555</v>
@@ -36781,7 +36673,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.899186034389168</v>
+        <v>1.87494875417945</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.904580877900708</v>
@@ -36870,7 +36762,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.949389383100528</v>
+        <v>1.920324265611721</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.035434004865132</v>
@@ -36959,7 +36851,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.934186691199564</v>
+        <v>1.904668964061734</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.784015917172513</v>
@@ -37048,7 +36940,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.861899011579287</v>
+        <v>1.846547236860518</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.300183964916562</v>
@@ -37137,7 +37029,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.855593264708078</v>
+        <v>1.846734620461702</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.049955618591067</v>
@@ -37226,7 +37118,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.873040559774525</v>
+        <v>1.861289716489207</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.258886491854522</v>
@@ -37315,7 +37207,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.878206329558075</v>
+        <v>1.871564608976483</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.287584837470023</v>
@@ -37404,7 +37296,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.862083197157213</v>
+        <v>1.860552477685249</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.31872545046008</v>
@@ -37493,7 +37385,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.864384136655325</v>
+        <v>1.867290012346182</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.662439900657858</v>
@@ -37582,7 +37474,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.866547385551425</v>
+        <v>1.871395049548135</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.356019691072219</v>
@@ -37671,7 +37563,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.873235603807525</v>
+        <v>1.881175773573357</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.412580999642311</v>
@@ -37760,7 +37652,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.870128218002529</v>
+        <v>1.88196333697897</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.581016819710275</v>
@@ -37849,7 +37741,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.876646528120872</v>
+        <v>1.894149860392139</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.723223262024198</v>
@@ -37938,7 +37830,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.856435740868828</v>
+        <v>1.877418153122189</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.553412574876468</v>
@@ -38027,7 +37919,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.831523781893064</v>
+        <v>1.855868871415226</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.194189826051897</v>
@@ -38116,7 +38008,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.826327390439074</v>
+        <v>1.850043587106219</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.247572040725075</v>
@@ -38205,7 +38097,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.805160371707571</v>
+        <v>1.829568773434041</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.159788130533724</v>
@@ -38294,7 +38186,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.77562649505544</v>
+        <v>1.807015832801972</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.048552795914487</v>
